--- a/1-Define/Kano analysis/Kano_Model.xlsx
+++ b/1-Define/Kano analysis/Kano_Model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dani_\OneDrive\Documentos\LeanSS\Python\1-Define\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dani_\OneDrive\Documentos\LeanSS\Python\1-Define\Kano analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D208CE-461D-4F7E-80DB-C878C7316763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B69B3C2-CCEB-46C9-9D7D-906F996065CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10590" yWindow="21480" windowWidth="29040" windowHeight="16440" xr2:uid="{4B24934C-46D6-4CB7-B55D-D582E7CEB4D5}"/>
   </bookViews>
@@ -131,21 +131,6 @@
 sentirías?</t>
   </si>
   <si>
-    <t>2. Debería de ser de esa forma</t>
-  </si>
-  <si>
-    <t>5. Me disgusta de esa forma</t>
-  </si>
-  <si>
-    <t>1. Me gusta de esa forma</t>
-  </si>
-  <si>
-    <t>4. Puedo vivir de esa manera</t>
-  </si>
-  <si>
-    <t>3. Estoy neutral</t>
-  </si>
-  <si>
     <t>Numero_respuesta</t>
   </si>
   <si>
@@ -161,6 +146,21 @@
   <si>
     <t>Si el casetón no tiene un certificado 
 de calidad, ¿Cómo te sentirías?</t>
+  </si>
+  <si>
+    <t>Me gusta de esa forma</t>
+  </si>
+  <si>
+    <t>Debería de ser de esa forma</t>
+  </si>
+  <si>
+    <t>Estoy neutral</t>
+  </si>
+  <si>
+    <t>Puedo vivir de esa manera</t>
+  </si>
+  <si>
+    <t>Me disgusta de esa forma</t>
   </si>
 </sst>
 </file>
@@ -190,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,12 +200,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +222,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D53315-727B-462F-AE94-F2B70957EC86}">
   <dimension ref="A1:E241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -586,7 +580,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -603,7 +597,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -620,7 +614,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -634,10 +628,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -654,7 +648,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -671,7 +665,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -688,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -702,10 +696,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -722,7 +716,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -739,7 +733,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -756,7 +750,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -770,10 +764,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -790,7 +784,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -807,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -824,7 +818,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -838,10 +832,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -858,7 +852,7 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -875,7 +869,7 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -892,13 +886,13 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -906,10 +900,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -926,7 +920,7 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -943,7 +937,7 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -960,7 +954,7 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -974,10 +968,10 @@
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -994,7 +988,7 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1011,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -1028,7 +1022,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1042,10 +1036,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -1062,7 +1056,7 @@
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1079,7 +1073,7 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -1096,13 +1090,13 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1110,10 +1104,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -1130,7 +1124,7 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -1147,7 +1141,7 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -1164,7 +1158,7 @@
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -1178,10 +1172,10 @@
         <v>13</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -1198,7 +1192,7 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -1215,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -1232,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1246,10 +1240,10 @@
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -1266,7 +1260,7 @@
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -1283,7 +1277,7 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E43">
         <v>5</v>
@@ -1300,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1314,10 +1308,10 @@
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -1334,7 +1328,7 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1351,7 +1345,7 @@
         <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E47">
         <v>5</v>
@@ -1368,7 +1362,7 @@
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -1382,10 +1376,10 @@
         <v>13</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -1402,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1419,7 +1413,7 @@
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -1436,7 +1430,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1450,10 +1444,10 @@
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E53">
         <v>4</v>
@@ -1470,7 +1464,7 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -1487,7 +1481,7 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -1504,13 +1498,13 @@
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -1518,10 +1512,10 @@
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E57">
         <v>3</v>
@@ -1538,7 +1532,7 @@
         <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -1555,7 +1549,7 @@
         <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E59">
         <v>5</v>
@@ -1572,7 +1566,7 @@
         <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -1586,10 +1580,10 @@
         <v>13</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
         <v>32</v>
-      </c>
-      <c r="D61" t="s">
-        <v>28</v>
       </c>
       <c r="E61">
         <v>4</v>
@@ -1606,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1623,7 +1617,7 @@
         <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E63">
         <v>5</v>
@@ -1640,7 +1634,7 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -1654,10 +1648,10 @@
         <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E65">
         <v>4</v>
@@ -1674,7 +1668,7 @@
         <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E66">
         <v>3</v>
@@ -1691,7 +1685,7 @@
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -1708,13 +1702,13 @@
         <v>21</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
@@ -1722,10 +1716,10 @@
         <v>11</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -1742,7 +1736,7 @@
         <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -1759,7 +1753,7 @@
         <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -1776,7 +1770,7 @@
         <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -1790,10 +1784,10 @@
         <v>13</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" t="s">
         <v>32</v>
-      </c>
-      <c r="D73" t="s">
-        <v>28</v>
       </c>
       <c r="E73">
         <v>4</v>
@@ -1810,7 +1804,7 @@
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -1827,7 +1821,7 @@
         <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -1844,7 +1838,7 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -1858,10 +1852,10 @@
         <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -1878,7 +1872,7 @@
         <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E78">
         <v>3</v>
@@ -1895,7 +1889,7 @@
         <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -1912,13 +1906,13 @@
         <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7</v>
       </c>
@@ -1926,10 +1920,10 @@
         <v>11</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -1946,7 +1940,7 @@
         <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E82">
         <v>3</v>
@@ -1963,7 +1957,7 @@
         <v>23</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -1980,7 +1974,7 @@
         <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -1994,10 +1988,10 @@
         <v>13</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" t="s">
         <v>32</v>
-      </c>
-      <c r="D85" t="s">
-        <v>28</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -2014,7 +2008,7 @@
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -2031,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -2048,7 +2042,7 @@
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2062,10 +2056,10 @@
         <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E89">
         <v>4</v>
@@ -2082,7 +2076,7 @@
         <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -2099,7 +2093,7 @@
         <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -2116,13 +2110,13 @@
         <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8</v>
       </c>
@@ -2130,10 +2124,10 @@
         <v>11</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -2150,7 +2144,7 @@
         <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E94">
         <v>3</v>
@@ -2167,7 +2161,7 @@
         <v>23</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E95">
         <v>3</v>
@@ -2184,7 +2178,7 @@
         <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -2198,10 +2192,10 @@
         <v>13</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -2218,7 +2212,7 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -2235,7 +2229,7 @@
         <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -2252,7 +2246,7 @@
         <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -2266,10 +2260,10 @@
         <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2286,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E102">
         <v>2</v>
@@ -2303,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E103">
         <v>5</v>
@@ -2320,13 +2314,13 @@
         <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>9</v>
       </c>
@@ -2334,10 +2328,10 @@
         <v>11</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E105">
         <v>4</v>
@@ -2354,7 +2348,7 @@
         <v>22</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E106">
         <v>3</v>
@@ -2371,7 +2365,7 @@
         <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E107">
         <v>3</v>
@@ -2388,7 +2382,7 @@
         <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -2402,10 +2396,10 @@
         <v>13</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E109">
         <v>3</v>
@@ -2422,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E110">
         <v>2</v>
@@ -2439,7 +2433,7 @@
         <v>17</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E111">
         <v>5</v>
@@ -2456,7 +2450,7 @@
         <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -2470,10 +2464,10 @@
         <v>10</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E113">
         <v>4</v>
@@ -2490,7 +2484,7 @@
         <v>19</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -2507,7 +2501,7 @@
         <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -2524,13 +2518,13 @@
         <v>21</v>
       </c>
       <c r="D116" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>10</v>
       </c>
@@ -2538,10 +2532,10 @@
         <v>11</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E117">
         <v>4</v>
@@ -2558,7 +2552,7 @@
         <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E118">
         <v>3</v>
@@ -2575,7 +2569,7 @@
         <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -2592,7 +2586,7 @@
         <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E120">
         <v>3</v>
@@ -2606,10 +2600,10 @@
         <v>13</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D121" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E121">
         <v>3</v>
@@ -2626,7 +2620,7 @@
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E122">
         <v>2</v>
@@ -2643,7 +2637,7 @@
         <v>17</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E123">
         <v>5</v>
@@ -2660,7 +2654,7 @@
         <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -2674,10 +2668,10 @@
         <v>10</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D125" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E125">
         <v>4</v>
@@ -2694,7 +2688,7 @@
         <v>19</v>
       </c>
       <c r="D126" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -2711,7 +2705,7 @@
         <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E127">
         <v>5</v>
@@ -2728,13 +2722,13 @@
         <v>21</v>
       </c>
       <c r="D128" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>11</v>
       </c>
@@ -2742,10 +2736,10 @@
         <v>11</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D129" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E129">
         <v>4</v>
@@ -2762,7 +2756,7 @@
         <v>22</v>
       </c>
       <c r="D130" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E130">
         <v>3</v>
@@ -2779,7 +2773,7 @@
         <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E131">
         <v>3</v>
@@ -2796,7 +2790,7 @@
         <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E132">
         <v>3</v>
@@ -2810,10 +2804,10 @@
         <v>13</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D133" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E133">
         <v>3</v>
@@ -2830,7 +2824,7 @@
         <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E134">
         <v>2</v>
@@ -2847,7 +2841,7 @@
         <v>17</v>
       </c>
       <c r="D135" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E135">
         <v>5</v>
@@ -2864,7 +2858,7 @@
         <v>18</v>
       </c>
       <c r="D136" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -2878,10 +2872,10 @@
         <v>10</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -2898,7 +2892,7 @@
         <v>19</v>
       </c>
       <c r="D138" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -2915,7 +2909,7 @@
         <v>20</v>
       </c>
       <c r="D139" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E139">
         <v>5</v>
@@ -2932,13 +2926,13 @@
         <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>12</v>
       </c>
@@ -2946,10 +2940,10 @@
         <v>11</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D141" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E141">
         <v>4</v>
@@ -2966,7 +2960,7 @@
         <v>22</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E142">
         <v>3</v>
@@ -2983,7 +2977,7 @@
         <v>23</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E143">
         <v>3</v>
@@ -3000,7 +2994,7 @@
         <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E144">
         <v>3</v>
@@ -3014,10 +3008,10 @@
         <v>13</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E145">
         <v>3</v>
@@ -3034,7 +3028,7 @@
         <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -3051,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -3068,7 +3062,7 @@
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -3082,10 +3076,10 @@
         <v>10</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D149" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E149">
         <v>4</v>
@@ -3102,7 +3096,7 @@
         <v>19</v>
       </c>
       <c r="D150" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -3119,7 +3113,7 @@
         <v>20</v>
       </c>
       <c r="D151" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E151">
         <v>5</v>
@@ -3136,13 +3130,13 @@
         <v>21</v>
       </c>
       <c r="D152" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E152">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>13</v>
       </c>
@@ -3150,10 +3144,10 @@
         <v>11</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D153" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -3170,7 +3164,7 @@
         <v>22</v>
       </c>
       <c r="D154" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E154">
         <v>3</v>
@@ -3187,7 +3181,7 @@
         <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E155">
         <v>3</v>
@@ -3204,7 +3198,7 @@
         <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E156">
         <v>3</v>
@@ -3218,10 +3212,10 @@
         <v>13</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D157" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E157">
         <v>3</v>
@@ -3238,7 +3232,7 @@
         <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E158">
         <v>2</v>
@@ -3255,7 +3249,7 @@
         <v>17</v>
       </c>
       <c r="D159" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E159">
         <v>5</v>
@@ -3272,7 +3266,7 @@
         <v>18</v>
       </c>
       <c r="D160" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -3286,10 +3280,10 @@
         <v>10</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E161">
         <v>4</v>
@@ -3306,7 +3300,7 @@
         <v>19</v>
       </c>
       <c r="D162" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E162">
         <v>2</v>
@@ -3323,7 +3317,7 @@
         <v>20</v>
       </c>
       <c r="D163" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E163">
         <v>5</v>
@@ -3340,13 +3334,13 @@
         <v>21</v>
       </c>
       <c r="D164" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>14</v>
       </c>
@@ -3354,10 +3348,10 @@
         <v>11</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D165" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -3374,7 +3368,7 @@
         <v>22</v>
       </c>
       <c r="D166" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E166">
         <v>3</v>
@@ -3391,7 +3385,7 @@
         <v>23</v>
       </c>
       <c r="D167" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E167">
         <v>3</v>
@@ -3408,7 +3402,7 @@
         <v>24</v>
       </c>
       <c r="D168" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E168">
         <v>3</v>
@@ -3422,10 +3416,10 @@
         <v>13</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E169">
         <v>3</v>
@@ -3442,7 +3436,7 @@
         <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E170">
         <v>2</v>
@@ -3459,7 +3453,7 @@
         <v>17</v>
       </c>
       <c r="D171" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E171">
         <v>5</v>
@@ -3476,7 +3470,7 @@
         <v>18</v>
       </c>
       <c r="D172" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -3490,10 +3484,10 @@
         <v>10</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D173" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E173">
         <v>4</v>
@@ -3510,7 +3504,7 @@
         <v>19</v>
       </c>
       <c r="D174" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E174">
         <v>2</v>
@@ -3527,7 +3521,7 @@
         <v>20</v>
       </c>
       <c r="D175" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E175">
         <v>5</v>
@@ -3544,13 +3538,13 @@
         <v>21</v>
       </c>
       <c r="D176" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>15</v>
       </c>
@@ -3558,10 +3552,10 @@
         <v>11</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D177" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E177">
         <v>4</v>
@@ -3578,7 +3572,7 @@
         <v>22</v>
       </c>
       <c r="D178" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E178">
         <v>3</v>
@@ -3595,7 +3589,7 @@
         <v>23</v>
       </c>
       <c r="D179" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E179">
         <v>3</v>
@@ -3612,7 +3606,7 @@
         <v>24</v>
       </c>
       <c r="D180" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -3626,10 +3620,10 @@
         <v>13</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D181" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E181">
         <v>3</v>
@@ -3646,7 +3640,7 @@
         <v>16</v>
       </c>
       <c r="D182" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E182">
         <v>2</v>
@@ -3663,7 +3657,7 @@
         <v>17</v>
       </c>
       <c r="D183" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E183">
         <v>5</v>
@@ -3680,7 +3674,7 @@
         <v>18</v>
       </c>
       <c r="D184" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -3694,10 +3688,10 @@
         <v>10</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E185">
         <v>4</v>
@@ -3714,7 +3708,7 @@
         <v>19</v>
       </c>
       <c r="D186" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E186">
         <v>2</v>
@@ -3731,7 +3725,7 @@
         <v>20</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E187">
         <v>5</v>
@@ -3748,13 +3742,13 @@
         <v>21</v>
       </c>
       <c r="D188" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>16</v>
       </c>
@@ -3762,10 +3756,10 @@
         <v>11</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E189">
         <v>4</v>
@@ -3782,7 +3776,7 @@
         <v>22</v>
       </c>
       <c r="D190" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E190">
         <v>3</v>
@@ -3799,7 +3793,7 @@
         <v>23</v>
       </c>
       <c r="D191" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E191">
         <v>3</v>
@@ -3816,7 +3810,7 @@
         <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E192">
         <v>3</v>
@@ -3830,10 +3824,10 @@
         <v>13</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D193" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E193">
         <v>3</v>
@@ -3850,7 +3844,7 @@
         <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E194">
         <v>2</v>
@@ -3867,7 +3861,7 @@
         <v>17</v>
       </c>
       <c r="D195" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E195">
         <v>5</v>
@@ -3884,7 +3878,7 @@
         <v>18</v>
       </c>
       <c r="D196" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -3898,10 +3892,10 @@
         <v>10</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D197" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E197">
         <v>4</v>
@@ -3918,7 +3912,7 @@
         <v>19</v>
       </c>
       <c r="D198" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E198">
         <v>2</v>
@@ -3935,7 +3929,7 @@
         <v>20</v>
       </c>
       <c r="D199" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E199">
         <v>5</v>
@@ -3952,13 +3946,13 @@
         <v>21</v>
       </c>
       <c r="D200" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>17</v>
       </c>
@@ -3966,10 +3960,10 @@
         <v>11</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D201" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E201">
         <v>4</v>
@@ -3986,7 +3980,7 @@
         <v>22</v>
       </c>
       <c r="D202" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E202">
         <v>3</v>
@@ -4003,7 +3997,7 @@
         <v>23</v>
       </c>
       <c r="D203" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E203">
         <v>3</v>
@@ -4020,7 +4014,7 @@
         <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -4034,10 +4028,10 @@
         <v>13</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D205" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E205">
         <v>3</v>
@@ -4054,7 +4048,7 @@
         <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E206">
         <v>2</v>
@@ -4071,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="D207" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E207">
         <v>5</v>
@@ -4088,7 +4082,7 @@
         <v>18</v>
       </c>
       <c r="D208" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -4102,10 +4096,10 @@
         <v>10</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D209" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E209">
         <v>4</v>
@@ -4122,7 +4116,7 @@
         <v>19</v>
       </c>
       <c r="D210" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E210">
         <v>2</v>
@@ -4139,7 +4133,7 @@
         <v>20</v>
       </c>
       <c r="D211" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E211">
         <v>5</v>
@@ -4156,13 +4150,13 @@
         <v>21</v>
       </c>
       <c r="D212" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>18</v>
       </c>
@@ -4170,10 +4164,10 @@
         <v>11</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D213" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E213">
         <v>4</v>
@@ -4190,7 +4184,7 @@
         <v>22</v>
       </c>
       <c r="D214" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E214">
         <v>2</v>
@@ -4207,7 +4201,7 @@
         <v>23</v>
       </c>
       <c r="D215" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E215">
         <v>5</v>
@@ -4224,7 +4218,7 @@
         <v>24</v>
       </c>
       <c r="D216" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E216">
         <v>3</v>
@@ -4238,10 +4232,10 @@
         <v>13</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D217" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E217">
         <v>3</v>
@@ -4258,7 +4252,7 @@
         <v>16</v>
       </c>
       <c r="D218" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -4275,7 +4269,7 @@
         <v>17</v>
       </c>
       <c r="D219" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E219">
         <v>5</v>
@@ -4292,7 +4286,7 @@
         <v>18</v>
       </c>
       <c r="D220" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -4306,10 +4300,10 @@
         <v>10</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D221" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E221">
         <v>4</v>
@@ -4326,7 +4320,7 @@
         <v>19</v>
       </c>
       <c r="D222" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E222">
         <v>2</v>
@@ -4343,7 +4337,7 @@
         <v>20</v>
       </c>
       <c r="D223" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E223">
         <v>5</v>
@@ -4360,13 +4354,13 @@
         <v>21</v>
       </c>
       <c r="D224" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E224">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>19</v>
       </c>
@@ -4374,10 +4368,10 @@
         <v>11</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D225" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E225">
         <v>4</v>
@@ -4394,7 +4388,7 @@
         <v>22</v>
       </c>
       <c r="D226" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E226">
         <v>2</v>
@@ -4411,7 +4405,7 @@
         <v>23</v>
       </c>
       <c r="D227" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E227">
         <v>5</v>
@@ -4428,7 +4422,7 @@
         <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -4442,10 +4436,10 @@
         <v>13</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D229" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -4462,7 +4456,7 @@
         <v>16</v>
       </c>
       <c r="D230" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E230">
         <v>2</v>
@@ -4479,7 +4473,7 @@
         <v>17</v>
       </c>
       <c r="D231" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E231">
         <v>5</v>
@@ -4496,7 +4490,7 @@
         <v>18</v>
       </c>
       <c r="D232" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -4510,10 +4504,10 @@
         <v>10</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D233" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E233">
         <v>4</v>
@@ -4530,7 +4524,7 @@
         <v>19</v>
       </c>
       <c r="D234" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E234">
         <v>2</v>
@@ -4547,7 +4541,7 @@
         <v>20</v>
       </c>
       <c r="D235" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E235">
         <v>5</v>
@@ -4564,13 +4558,13 @@
         <v>21</v>
       </c>
       <c r="D236" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E236">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>20</v>
       </c>
@@ -4578,10 +4572,10 @@
         <v>11</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D237" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E237">
         <v>4</v>
@@ -4598,7 +4592,7 @@
         <v>22</v>
       </c>
       <c r="D238" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E238">
         <v>2</v>
@@ -4615,7 +4609,7 @@
         <v>23</v>
       </c>
       <c r="D239" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E239">
         <v>5</v>
@@ -4632,7 +4626,7 @@
         <v>24</v>
       </c>
       <c r="D240" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -4646,10 +4640,10 @@
         <v>13</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D241" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E241">
         <v>1</v>
